--- a/OutputCarData/OutputCar.xlsx
+++ b/OutputCarData/OutputCar.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="HyundaiCretaS(O) D MT DT Knight" r:id="rId3" sheetId="1"/>
+    <sheet name="TataNexon1.2P Smart +" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>HyundaiCretaS(O) D MT DT Knight</t>
   </si>
@@ -120,6 +121,45 @@
   </si>
   <si>
     <t>₹ 18,39,488</t>
+  </si>
+  <si>
+    <t>TataNexon1.2P Smart +</t>
+  </si>
+  <si>
+    <t>1199 cc</t>
+  </si>
+  <si>
+    <t>118.35 bhp @ 5500 rpm bhp</t>
+  </si>
+  <si>
+    <t>17.44 kmpl</t>
+  </si>
+  <si>
+    <t>44 litres</t>
+  </si>
+  <si>
+    <t>5 Speed</t>
+  </si>
+  <si>
+    <t>195/60 R16</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>₹ 8,89,990</t>
+  </si>
+  <si>
+    <t>₹ 53,399.4</t>
+  </si>
+  <si>
+    <t>₹ 48,949</t>
+  </si>
+  <si>
+    <t>₹ 9,92,338</t>
   </si>
 </sst>
 </file>
@@ -170,13 +210,206 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.26171875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.94140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.94140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>1</v>
@@ -203,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -211,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -227,7 +460,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -259,7 +492,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -267,7 +500,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -275,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -291,7 +524,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -299,7 +532,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -323,7 +556,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -331,7 +564,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -339,7 +572,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -347,7 +580,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/OutputCarData/OutputCar.xlsx
+++ b/OutputCarData/OutputCar.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TataNexon1.2P Smart +" r:id="rId5" sheetId="5"/>
-    <sheet name="TataNexon EVFearless +" r:id="rId4" sheetId="6"/>
-    <sheet name="HyundaiCretaS(O) D MT DT Knight" r:id="rId6" sheetId="7"/>
+    <sheet name="TataNexon1.2P Smart +" r:id="rId5" sheetId="8"/>
+    <sheet name="TataNexon EVFearless +" r:id="rId7" sheetId="9"/>
+    <sheet name="HyundaiCretaS(O) D MT DT Knight" r:id="rId6" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="73">
   <si>
     <t>TataNexon1.2P Smart +</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>₹ 18,39,488</t>
+  </si>
+  <si>
+    <t>₹ 11,69,990</t>
+  </si>
+  <si>
+    <t>₹ 70,199.4</t>
+  </si>
+  <si>
+    <t>₹ 64,349</t>
+  </si>
+  <si>
+    <t>₹ 13,16,238</t>
   </si>
 </sst>
 </file>
@@ -263,7 +275,200 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="28.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.4453125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -424,7 +629,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -432,7 +637,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -440,7 +645,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -448,7 +653,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -456,7 +661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -639,197 +844,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="28.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.4453125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>